--- a/data/law_punish.xlsx
+++ b/data/law_punish.xlsx
@@ -7,9 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="保障中小企业款项支付条例" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="涉税专业服务管理办法(试行)" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="酒泉市节约用水管理办法" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="中华人民共和国道路交通安全法（2011）" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="中华人民共和国道路交通安全法（2021）" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -427,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,12 +489,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>bzzxqykxzftl5</t>
+          <t>zhrmghgdljtaqf（1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>第31条第1款</t>
+          <t>第68条第1款</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -509,16 +508,20 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>交通运输</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>机关、事业单位</t>
+          <t>个人</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>由其上级机关、主管部门责令改正</t>
+          <t>应当依照本法第五十二条的有关规定办理</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -530,35 +533,39 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>bzzxqykxzftl5</t>
+          <t>zhrmghgdljtaqf（3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>第31条第1款</t>
+          <t>第89条第1款</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>拒不改正</t>
+          <t>一般</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>处分</t>
+          <t>罚款</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>交通运输</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>企业相关人员</t>
+          <t>非机动车驾驶人</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>对负有责任的领导人员和直接责任人员依法给予处分</t>
+          <t>处五元以上五十元以下罚款</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -570,76 +577,100 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>bzzxqykxzftl4</t>
+          <t>zhrmghgdljtaqf（3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>第31条第1款</t>
+          <t>第89条第1款</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>一般</t>
+          <t>非机动车驾驶人拒绝接受罚款处罚</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>责令改正</t>
+          <t>扣押财物</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>交通运输</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>非机动车驾驶人</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>由其上级机关、主管部门责令改正</t>
+          <t>可以扣留其非机动车</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>行政措施</t>
+          <t>强制措施</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>bzzxqykxzftl4</t>
+          <t>zhrmghgdljtaqf（2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>第31条第1款</t>
+          <t>第89条第1款</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>拒不改正</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+          <t>一般</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>警告</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>交通运输</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>个人</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>对负有责任的领导人员和直接责任人员依法给予处分</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
+          <t>处警告</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>行政处罚</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>bzzxqykxzftl1</t>
+          <t>zhrmghgdljtaqf（2</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>第31条第1款</t>
+          <t>第89条第1款</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -649,51 +680,59 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>责令改正</t>
+          <t>罚款</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>交通运输</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>机关、事业单位</t>
+          <t>个人</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>由其上级机关、主管部门责令改正</t>
+          <t>处五元以上五十元以下罚款</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>行政措施</t>
+          <t>行政处罚</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>bzzxqykxzftl1</t>
+          <t>zhrmghgdljtaqf（2</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>第31条第1款</t>
+          <t>第89条第1款</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>拒不改正</t>
+          <t>非机动车驾驶人拒绝接受罚款处罚</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>处分</t>
+          <t>扣押财物</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>交通运输</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
@@ -702,24 +741,24 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>对负有责任的领导人员和直接责任人员依法给予处分</t>
+          <t>可以扣留其非机动车</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>行政处罚</t>
+          <t>强制措施</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>bzzxqykxzftl3</t>
+          <t>zhrmghgdljtaqf（4</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>第31条第1款</t>
+          <t>第90条第1款</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -729,51 +768,59 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>责令改正</t>
+          <t>警告</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>交通运输</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>机关、事业单位</t>
+          <t>个人</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>由其上级机关、主管部门责令改正</t>
+          <t>处警告</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>行政措施</t>
+          <t>行政处罚</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>bzzxqykxzftl3</t>
+          <t>zhrmghgdljtaqf（4</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>第31条第1款</t>
+          <t>第90条第1款</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>拒不改正</t>
+          <t>一般</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>处分</t>
+          <t>罚款</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>交通运输</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
@@ -782,7 +829,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>对负有责任的领导人员和直接责任人员依法给予处分</t>
+          <t>处二十元以上二百元以下罚款</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -794,12 +841,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>bzzxqykxzftl2</t>
+          <t>zhrmghgdljtaqf（5</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>第31条第1款</t>
+          <t>第91条第1款</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -809,51 +856,59 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>责令改正</t>
+          <t>暂扣许可证件</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>公安</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>机关、事业单位</t>
+          <t>个人</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>由其上级机关、主管部门责令改正</t>
+          <t>处暂扣六个月机动车驾驶证</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>行政措施</t>
+          <t>行政处罚</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bzzxqykxzftl2</t>
+          <t>zhrmghgdljtaqf（5</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>第31条第1款</t>
+          <t>第91条第1款</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>拒不改正</t>
+          <t>一般</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>行政处分</t>
+          <t>罚款</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>公安</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
@@ -862,7 +917,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>对负有责任的领导人员和直接责任人员依法给予处分</t>
+          <t>并处一千元以上二千元以下罚款</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -874,66 +929,74 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>bzzxqykxzftl6</t>
+          <t>zhrmghgdljtaqf（5</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>第31条第1款</t>
+          <t>第91条第1款</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>一般</t>
+          <t>因饮酒后驾驶机动车被处罚，再次饮酒后驾驶机动车的</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>责令改正</t>
+          <t>行政拘留</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>公安</t>
+        </is>
+      </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>机关、事业单位</t>
+          <t>个人</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>由其上级机关、主管部门责令改正</t>
+          <t>处十日以下拘留</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>行政措施</t>
+          <t>行政处罚</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>bzzxqykxzftl6</t>
+          <t>zhrmghgdljtaqf（5</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>第31条第1款</t>
+          <t>第91条第1款</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>拒不改正</t>
+          <t>因饮酒后驾驶机动车被处罚，再次饮酒后驾驶机动车的</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>处分</t>
+          <t>罚款</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>公安</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
@@ -942,7 +1005,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>对负有责任的领导人员和直接责任人员依法给予处分</t>
+          <t>并处一千元以上二千元以下罚款</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -954,75 +1017,83 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>bzzxqykxzftl7</t>
+          <t>zhrmghgdljtaqf（5</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>第31条第1款</t>
+          <t>第91条第1款</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>一般</t>
+          <t>因饮酒后驾驶机动车被处罚，再次饮酒后驾驶机动车的</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>责令改正</t>
+          <t>吊销许可证件</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>公安</t>
+        </is>
+      </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>单位</t>
+          <t>个人</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>由其上级机关、主管部门责令改正</t>
+          <t>吊销机动车驾驶证</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>行政措施</t>
+          <t>行政处罚</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>bzzxqykxzftl7</t>
+          <t>zhrmghgdljtaqf（6</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>第31条第1款</t>
+          <t>第91条第1款</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>拒不改正</t>
+          <t>因饮酒后驾驶机动车被处罚，再次饮酒后驾驶机动车的</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>处分</t>
+          <t>行政拘留</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>公安</t>
+        </is>
+      </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>企业相关人员</t>
+          <t>个人</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>对负有责任的领导人员和直接责任人员依法给予处分</t>
+          <t>处十日以下拘留</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1034,66 +1105,74 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>bzzxqykxzftl9</t>
+          <t>zhrmghgdljtaqf（6</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>第31条第1款</t>
+          <t>第91条第1款</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>一般</t>
+          <t>因饮酒后驾驶机动车被处罚，再次饮酒后驾驶机动车的</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>责令改正</t>
+          <t>罚款</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>公安</t>
+        </is>
+      </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>机关、事业单位</t>
+          <t>个人</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>由其上级机关、主管部门责令改正</t>
+          <t>并处一千元以上二千元以下罚款</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>行政措施</t>
+          <t>行政处罚</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bzzxqykxzftl9</t>
+          <t>zhrmghgdljtaqf（6</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>第31条第1款</t>
+          <t>第91条第1款</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>拒不改正</t>
+          <t>因饮酒后驾驶机动车被处罚，再次饮酒后驾驶机动车的</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>给予处分</t>
+          <t>吊销许可证件</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>公安</t>
+        </is>
+      </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
@@ -1102,7 +1181,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>对负有责任的领导人员和直接责任人员依法给予处分</t>
+          <t>吊销机动车驾驶证</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1114,12 +1193,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bzzxqykxzftl8</t>
+          <t>zhrmghgdljtaqf（9</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>第31条第1款</t>
+          <t>第92条第1款</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1129,65 +1208,2009 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>责令改正</t>
+          <t>罚款</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>交通运输</t>
+        </is>
+      </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>机关、事业单位</t>
+          <t>企业</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>由其上级机关、主管部门责令改正</t>
+          <t>处五百元以上二千元以下罚款</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>行政措施</t>
+          <t>行政处罚</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>bzzxqykxzftl8</t>
+          <t>zhrmghgdljtaqf（8</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>第31条第1款</t>
+          <t>第92条第1款</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>拒不改正</t>
+          <t>一般</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>处分</t>
+          <t>罚款</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>交通运输</t>
+        </is>
+      </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>个人</t>
+          <t>企业</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>对负有责任的领导人员和直接责任人员依法给予处分</t>
+          <t>处二百元以上五百元以下罚款</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
           <t>行政处罚</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>zhrmghgdljtaqf（8</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>第92条第1款</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>超过额定乘员百分之二十</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>罚款</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>交通运输</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>企业</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>处五百元以上二千元以下罚款</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>行政处罚</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>zhrmghgdljtaqf（7</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>第91条第3款</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>一般</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>行政拘留</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>交通运输</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>个人</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>处十五日拘留</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>行政处罚</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>zhrmghgdljtaqf（7</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>第91条第3款</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>一般</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>罚款</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>交通运输</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>个人</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>并处五千元罚款</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>行政处罚</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>zhrmghgdljtaqf（7</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>第91条第3款</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>一般</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>吊销许可证件</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>交通运输</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>个人</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>吊销机动车驾驶证</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>行政处罚</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>zhrmghgdljtaqf（7</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>第91条第3款</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>一般</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>限制从业</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>交通运输</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>个人</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>五年内不得重新取得机动车驾驶证</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>行政处罚</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>zhrmghgdljtaqf（10</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>第92条第1款</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>一般</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>罚款</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>交通运输</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>企业</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>处五百元以上二千元以下罚款</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>行政处罚</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>zhrmghgdljtaqf（12</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>第92条第2款</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>一般</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>罚款</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>交通运输</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>企业、个人</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>处五百元以上二千元以下罚款</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>行政处罚</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>zhrmghgdljtaqf（13</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>第92条第2款</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>一般</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>罚款</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>交通运输</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>企业</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>处五百元以上二千元以下罚款</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>行政处罚</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>zhrmghgdljtaqf（11</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>第92条第2款</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>一般</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>罚款</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>交通运输</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>企业</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>处二百元以上五百元以下罚款</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>行政处罚</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>zhrmghgdljtaqf（11</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>第92条第2款</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>超过核定载质量百分之三十</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>罚款</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>交通运输</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>企业</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>处五百元以上二千元以下罚款</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>行政处罚</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>zhrmghgdljtaqf（14</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>第93条第1款|第93条第2款</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>一般</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>责令改正</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>公安</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>个人</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>指出违法行为，并予以口头警告，令其立即驶离</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>行政措施</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>zhrmghgdljtaqf（14</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>第93条第1款|第93条第2款</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>机动车驾驶人不在现场或者虽在现场但拒绝立即驶离，妨碍其他车辆、行人通行</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>罚款</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>公安</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>个人</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>处二十元以上二百元以下罚款</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>行政处罚</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>zhrmghgdljtaqf（14</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>第93条第1款|第93条第2款</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>机动车驾驶人不在现场或者虽在现场但拒绝立即驶离，妨碍其他车辆、行人通行</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>其他强制措施</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>公安</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>个人</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>将该机动车拖移至不妨碍交通的地点或者公安机关交通管理部门指定的地点停放</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>强制措施</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>zhrmghgdljtaqf（15</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>第96条第1款</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>一般</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>没收非法财物</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>公安</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>个人</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>由公安机关交通管理部门予以收缴</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>行政处罚</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>zhrmghgdljtaqf（15</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>第96条第1款</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>一般</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>扣押财物</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>公安</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>个人</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>扣留该机动车</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>强制措施</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>zhrmghgdljtaqf（15</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>第96条第1款</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>一般</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>行政拘留</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>公安</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>个人</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>处十五日以下拘留</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>行政处罚</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>zhrmghgdljtaqf（15</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>第96条第1款</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>一般</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>罚款</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>公安</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>个人</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>并处二千元以上五千元以下罚款</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>行政处罚</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>zhrmghgdljtaqf（16</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>第96条第2款</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>一般</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>没收非法财物</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>公安</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>个人</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>由公安机关交通管理部门予以收缴</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>行政处罚</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>zhrmghgdljtaqf（16</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>第96条第2款</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>一般</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>扣押财物</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>公安</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>个人</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>扣留该机动车</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>强制措施</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>zhrmghgdljtaqf（16</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>第96条第2款</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>一般</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>行政拘留</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>公安</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>个人</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>处十日以下拘留</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>行政处罚</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>zhrmghgdljtaqf（16</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>第96条第2款</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>一般</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>罚款</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>公安</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>个人</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>并处一千元以上三千元以下罚款</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>行政处罚</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>zhrmghgdljtaqf（18</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>第97条第1款</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>一般</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>其他强制措施</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>公安</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>个人、企业</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>由公安机关交通管理部门强制拆除，予以收缴</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>强制措施</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>zhrmghgdljtaqf（18</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>第97条第1款</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>一般</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>罚款</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>公安</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>个人、企业</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>并处二百元以上二千元以下罚款</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>行政处罚</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>zhrmghgdljtaqf（17</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>第96条第3款</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>一般</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>没收非法财物</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>公安</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>个人、企业</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>由公安机关交通管理部门予以收缴</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>行政处罚</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>zhrmghgdljtaqf（17</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>第96条第3款</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>一般</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>扣押财物</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>公安</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>个人、企业</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>扣留该机动车</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>强制措施</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>zhrmghgdljtaqf（17</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>第96条第3款</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>一般</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>罚款</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>公安</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>个人、企业</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>处二千元以上五千元以下罚款</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>行政处罚</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>zhrmghgdljtaqf（22</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>第99条第1款</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>一般</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>罚款</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>公安</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>个人</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>由公安机关交通管理部门处二百元以上二千元以下罚款</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>行政处罚</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>zhrmghgdljtaqf（21</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>第99条第1款</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>一般</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>罚款</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>公安</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>个人</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>由公安机关交通管理部门处二百元以上二千元以下罚款</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>行政处罚</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>zhrmghgdljtaqf（19</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>第98条第1款|第98条第2款</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>一般</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>扣押财物</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>公安</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>机动车所有人、管理人</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>由公安机关交通管理部门扣留车辆至依照规定投保后</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>强制措施</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>zhrmghgdljtaqf（19</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>第98条第1款|第98条第2款</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>一般</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>罚款</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>公安</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>机动车所有人、管理人</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>并处依照规定投保最低责任限额应缴纳的保险费的二倍罚款</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>行政处罚</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>zhrmghgdljtaqf（20</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>第98条第1款|第98条第2款</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>一般</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>扣押财物</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>公安</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>个人、企业</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>由公安机关交通管理部门扣留车辆至依照规定投保后</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>强制措施</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>zhrmghgdljtaqf（20</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>第98条第1款|第98条第2款</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>一般</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>罚款</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>公安</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>个人、企业</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>并处依照规定投保最低责任限额应缴纳的保险费的二倍罚款</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>行政处罚</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>zhrmghgdljtaqf（23</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>第99条第1款</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>一般</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>罚款</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>公安</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>个人</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>由公安机关交通管理部门处二百元以上二千元以下罚款</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>行政处罚</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>zhrmghgdljtaqf（24</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>第99条第1款</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>一般</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>罚款</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>公安</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>个人</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>由公安机关交通管理部门处二百元以上二千元以下罚款</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>行政处罚</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>zhrmghgdljtaqf（27</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>第99条第1款</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>一般</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>罚款</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>公安</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>个人</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>由公安机关交通管理部门处二百元以上二千元以下罚款</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>行政处罚</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>zhrmghgdljtaqf（25</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>第99条第1款</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>一般</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>罚款</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>公安</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>个人</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>由公安机关交通管理部门处二百元以上二千元以下罚款</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>行政处罚</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>zhrmghgdljtaqf（26</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>第99条第1款</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>一般</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>罚款</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>公安</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>个人</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>处二百元以上二千元以下罚款</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>行政处罚</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>zhrmghgdljtaqf（28</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>第99条第1款</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>一般</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>罚款</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>公安</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>个人</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>由公安机关交通管理部门处二百元以上二千元以下罚款</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>行政处罚</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>zhrmghgdljtaqf（29</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>第100条第3款</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>一般</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>没收违法所得</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>市场监督管理</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>企业、个人</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>没收违法所得</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>行政处罚</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>zhrmghgdljtaqf（29</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>第100条第3款</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>一般</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>罚款</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>市场监督管理</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>企业、个人</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>处销售金额等额的罚款</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>行政处罚</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>zhrmghgdljtaqf（30</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>第103条第3款</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>一般</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>没收非法财物</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>市场监督管理</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>企业</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>没收非法生产、销售的机动车成品及配件</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>行政处罚</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>zhrmghgdljtaqf（30</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>第103条第3款</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>一般</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>罚款</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>市场监督管理</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>企业</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>可以并处非法产品价值三倍以上五倍以下罚款</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>行政处罚</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>zhrmghgdljtaqf（30</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>第103条第3款</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>有营业执照</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>吊销许可证件</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>市场监督管理</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>企业</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>由工商行政管理部门吊销营业执照</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>行政处罚</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>zhrmghgdljtaqf（30</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>第103条第3款</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>没有营业执照</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>查封场所、设施或者财物</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>市场监督管理</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>企业</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>予以查封</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>强制措施</t>
         </is>
       </c>
     </row>
@@ -1202,7 +3225,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J80"/>
+  <dimension ref="A1:J64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1265,149 +3288,145 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)11</t>
+          <t>zhrmghgdljtaqf（3</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>第33条第1款</t>
+          <t>第68条第1款</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>情节较重或者逾期不改正</t>
+          <t>一般</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>罚款</t>
+          <t>责令改正</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>税务</t>
+          <t>交通运输</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>机构</t>
+          <t>个人</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>对机构处以一千元以下罚款</t>
+          <t>应当迅速报警</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>行政处罚</t>
+          <t>行政措施</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)11</t>
+          <t>zhrmghgdljtaqf（1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>第33条第1款</t>
+          <t>第68条第1款</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>情节较重或者逾期不改正</t>
+          <t>一般</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>罚款</t>
+          <t>责令改正</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>税务</t>
+          <t>交通运输</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>人员</t>
+          <t>个人</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>对人员处以五百元以下罚款</t>
+          <t>应当依照本法第五十二条的有关规定办理</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>行政处罚</t>
+          <t>行政措施</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)11</t>
+          <t>zhrmghgdljtaqf（2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>第33条第1款</t>
+          <t>第68条第1款</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>情节严重</t>
+          <t>一般</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>罚款</t>
+          <t>责令改正</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>税务</t>
+          <t>交通运输</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>机构</t>
+          <t>个人</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>对机构处以二千元以下罚款</t>
+          <t>车上人员应当迅速转移到右侧路肩上或者应急车道内，并且迅速报警</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>行政处罚</t>
+          <t>行政措施</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)11</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>第33条第1款</t>
-        </is>
-      </c>
+          <t>zhrmghgdljtaqf（5</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>情节严重</t>
+          <t>一般</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1418,18 +3437,18 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>税务</t>
+          <t>交通运输</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>人员</t>
+          <t>个人</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>对人员处以一千元以下罚款</t>
+          <t>处五元以上五十元以下罚款</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1441,83 +3460,75 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)12</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>第33条第1款</t>
-        </is>
-      </c>
+          <t>zhrmghgdljtaqf（5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>情节较重或者逾期不改正</t>
+          <t>拒绝接受罚款处罚</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>罚款</t>
+          <t>扣押财物</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>税务</t>
+          <t>交通运输</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>机构</t>
+          <t>个人</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>对机构处以一千元以下罚款</t>
+          <t>可以扣留其非机动车</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>行政处罚</t>
+          <t>强制措施</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)12</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>第33条第1款</t>
-        </is>
-      </c>
+          <t>zhrmghgdljtaqf（4</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>情节较重或者逾期不改正</t>
+          <t>一般</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>罚款</t>
+          <t>警告</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>税务</t>
+          <t>交通运输</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>人员</t>
+          <t>个人</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>对人员处以五百元以下罚款</t>
+          <t>处警告</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1529,17 +3540,13 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)12</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>第33条第1款</t>
-        </is>
-      </c>
+          <t>zhrmghgdljtaqf（4</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>情节严重</t>
+          <t>一般</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1550,18 +3557,18 @@
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>税务</t>
+          <t>交通运输</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>机构</t>
+          <t>个人</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>对机构处以二千元以下罚款</t>
+          <t>处五元以上五十元以下罚款</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1573,79 +3580,79 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)12</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>第33条第1款</t>
-        </is>
-      </c>
+          <t>zhrmghgdljtaqf（4</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>情节严重</t>
+          <t>拒绝接受罚款处罚</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>罚款</t>
+          <t>扣押财物</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>税务</t>
+          <t>交通运输</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>人员</t>
+          <t>个人</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>对人员处以一千元以下罚款</t>
+          <t>扣留其非机动车</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>行政处罚</t>
+          <t>强制措施</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)14</t>
+          <t>zhrmghgdljtaqf（6</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>第33条第1款</t>
+          <t>第90条第1款</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>情节较重或者逾期不改正</t>
+          <t>一般</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>罚款</t>
+          <t>警告</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>交通运输</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>机构</t>
+          <t>个人</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>对机构处以一千元以下罚款</t>
+          <t>处警告</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1657,17 +3664,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)14</t>
+          <t>zhrmghgdljtaqf（6</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>第33条第1款</t>
+          <t>第90条第1款</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>情节较重或者逾期不改正</t>
+          <t>一般</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1676,16 +3683,20 @@
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>交通运输</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>人员</t>
+          <t>个人</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>对人员处以五百元以下罚款</t>
+          <t>处二十元以上二百元以下罚款</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1697,35 +3708,39 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)14</t>
+          <t>zhrmghgdljtaqf（8</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>第33条第1款</t>
+          <t>第91条第1款</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>情节严重</t>
+          <t>因饮酒后驾驶机动车被处罚，再次饮酒后驾驶机动车的</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>罚款</t>
+          <t>行政拘留</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>公安</t>
+        </is>
+      </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>机构</t>
+          <t>个人</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>对机构处以二千元以下罚款</t>
+          <t>处十日以下拘留</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1737,17 +3752,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)14</t>
+          <t>zhrmghgdljtaqf（8</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>第33条第1款</t>
+          <t>第91条第1款</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>情节严重</t>
+          <t>因饮酒后驾驶机动车被处罚，再次饮酒后驾驶机动车的</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1756,16 +3771,20 @@
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>公安</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>人员</t>
+          <t>个人</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>对人员处以一千元以下罚款</t>
+          <t>并处一千元以上二千元以下罚款</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1777,35 +3796,39 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)13</t>
+          <t>zhrmghgdljtaqf（8</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>第33条第1款</t>
+          <t>第91条第1款</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>情节较重或者逾期不改正</t>
+          <t>因饮酒后驾驶机动车被处罚，再次饮酒后驾驶机动车的</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>罚款</t>
+          <t>吊销许可证件</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>公安</t>
+        </is>
+      </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>机构</t>
+          <t>个人</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>对机构处以一千元以下罚款</t>
+          <t>吊销机动车驾驶证</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1817,17 +3840,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)13</t>
+          <t>zhrmghgdljtaqf（11</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>第33条第1款</t>
+          <t>第92条第1款</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>情节较重或者逾期不改正</t>
+          <t>一般</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1836,16 +3859,20 @@
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>交通运输</t>
+        </is>
+      </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>人员</t>
+          <t>企业</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>对人员处以五百元以下罚款</t>
+          <t>处五百元以上二千元以下罚款</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1857,17 +3884,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)13</t>
+          <t>zhrmghgdljtaqf（10</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>第33条第1款</t>
+          <t>第92条第1款</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>情节严重</t>
+          <t>一般</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1876,16 +3903,20 @@
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>交通运输</t>
+        </is>
+      </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>机构</t>
+          <t>企业</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>对机构处以二千元以下罚款</t>
+          <t>处二百元以上五百元以下罚款</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1897,17 +3928,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)13</t>
+          <t>zhrmghgdljtaqf（10</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>第33条第1款</t>
+          <t>第92条第1款</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>情节严重</t>
+          <t>超过额定乘员百分之二十</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1916,16 +3947,20 @@
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>交通运输</t>
+        </is>
+      </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>人员</t>
+          <t>企业</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>对人员处以一千元以下罚款</t>
+          <t>处五百元以上二千元以下罚款</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1937,39 +3972,39 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)15</t>
+          <t>zhrmghgdljtaqf（9</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>第33条第1款</t>
+          <t>第91条第3款</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>情节较重或者逾期不改正</t>
+          <t>一般</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>罚款</t>
+          <t>行政拘留</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>税务</t>
+          <t>交通运输</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>单位</t>
+          <t>个人</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>对机构处以一千元以下罚款</t>
+          <t>处十五日拘留</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1981,17 +4016,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)15</t>
+          <t>zhrmghgdljtaqf（9</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>第33条第1款</t>
+          <t>第91条第3款</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>情节较重或者逾期不改正</t>
+          <t>一般</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2002,7 +4037,7 @@
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>税务</t>
+          <t>交通运输</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -2013,7 +4048,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>对人员处以五百元以下罚款</t>
+          <t>并处五千元罚款</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -2025,39 +4060,39 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)15</t>
+          <t>zhrmghgdljtaqf（9</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>第33条第1款</t>
+          <t>第91条第3款</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>情节严重</t>
+          <t>一般</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>罚款</t>
+          <t>吊销许可证件</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>税务</t>
+          <t>交通运输</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>单位</t>
+          <t>个人</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>对机构处以二千元以下罚款</t>
+          <t>吊销机动车驾驶证</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -2069,28 +4104,28 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)15</t>
+          <t>zhrmghgdljtaqf（9</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>第33条第1款</t>
+          <t>第91条第3款</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>情节严重</t>
+          <t>一般</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>罚款</t>
+          <t>限制从业</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>税务</t>
+          <t>交通运输</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -2101,7 +4136,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>对人员处以一千元以下罚款</t>
+          <t>五年内不得重新取得机动车驾驶证</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -2113,39 +4148,39 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)16</t>
+          <t>zhrmghgdljtaqf（7</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>第33条第1款</t>
+          <t>第91条第1款</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>情节较重或者逾期不改正</t>
+          <t>一般</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>罚款</t>
+          <t>暂扣许可证件</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>税务</t>
+          <t>公安</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>机构</t>
+          <t>个人</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>对机构处以一千元以下罚款</t>
+          <t>处暂扣六个月机动车驾驶证</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -2157,17 +4192,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)16</t>
+          <t>zhrmghgdljtaqf（7</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>第33条第1款</t>
+          <t>第91条第1款</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>情节较重或者逾期不改正</t>
+          <t>一般</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2178,18 +4213,18 @@
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>税务</t>
+          <t>公安</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>人员</t>
+          <t>个人</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>对人员处以五百元以下罚款</t>
+          <t>并处一千元以上二千元以下罚款</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2201,39 +4236,39 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)16</t>
+          <t>zhrmghgdljtaqf（7</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>第33条第1款</t>
+          <t>第91条第1款</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>情节严重</t>
+          <t>因饮酒后驾驶机动车被处罚，再次饮酒后驾驶机动车的</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>罚款</t>
+          <t>行政拘留</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>税务</t>
+          <t>公安</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>机构</t>
+          <t>个人</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>对机构处以二千元以下罚款</t>
+          <t>处十日以下拘留</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2245,17 +4280,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)16</t>
+          <t>zhrmghgdljtaqf（7</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>第33条第1款</t>
+          <t>第91条第1款</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>情节严重</t>
+          <t>因饮酒后驾驶机动车被处罚，再次饮酒后驾驶机动车的</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2266,18 +4301,18 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>税务</t>
+          <t>公安</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>人员</t>
+          <t>个人</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>对人员处以一千元以下罚款</t>
+          <t>并处一千元以上二千元以下罚款</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2289,39 +4324,39 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)17</t>
+          <t>zhrmghgdljtaqf（7</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>第33条第1款</t>
+          <t>第91条第1款</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>情节较重或者逾期不改正</t>
+          <t>因饮酒后驾驶机动车被处罚，再次饮酒后驾驶机动车的</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>罚款</t>
+          <t>吊销许可证件</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>税务</t>
+          <t>公安</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>机构</t>
+          <t>个人</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>对机构处以一千元以下罚款</t>
+          <t>吊销机动车驾驶证</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2333,17 +4368,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)17</t>
+          <t>zhrmghgdljtaqf（12</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>第33条第1款</t>
+          <t>第92条第1款</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>情节较重或者逾期不改正</t>
+          <t>一般</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2354,18 +4389,18 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>税务</t>
+          <t>交通运输</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>人员</t>
+          <t>企业</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>对人员处以五百元以下罚款</t>
+          <t>处五百元以上二千元以下罚款</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2377,17 +4412,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)17</t>
+          <t>zhrmghgdljtaqf（15</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>第33条第1款</t>
+          <t>第92条第2款</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>情节严重</t>
+          <t>一般</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2398,18 +4433,18 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>税务</t>
+          <t>交通运输</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>机构</t>
+          <t>企业</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>对机构处以二千元以下罚款</t>
+          <t>处五百元以上二千元以下罚款</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2421,17 +4456,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)17</t>
+          <t>zhrmghgdljtaqf（14</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>第33条第1款</t>
+          <t>第92条第2款</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>情节严重</t>
+          <t>一般</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2442,18 +4477,18 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>税务</t>
+          <t>交通运输</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>人员</t>
+          <t>企业、个人</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>对人员处以一千元以下罚款</t>
+          <t>处五百元以上二千元以下罚款</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2465,17 +4500,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)18</t>
+          <t>zhrmghgdljtaqf（13</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>第33条第1款</t>
+          <t>第92条第2款</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>情节较重或者逾期不改正</t>
+          <t>一般</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2486,18 +4521,18 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>税务</t>
+          <t>交通运输</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>机构</t>
+          <t>企业、个人</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>对机构处以一千元以下罚款</t>
+          <t>处二百元以上五百元以下罚款</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2509,17 +4544,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)18</t>
+          <t>zhrmghgdljtaqf（13</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>第33条第1款</t>
+          <t>第92条第2款</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>情节较重或者逾期不改正</t>
+          <t>超过核定载质量百分之三十</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2530,18 +4565,18 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>税务</t>
+          <t>交通运输</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t>人员</t>
+          <t>企业、个人</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>对人员处以五百元以下罚款</t>
+          <t>处五百元以上二千元以下罚款</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2553,39 +4588,39 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)18</t>
+          <t>zhrmghgdljtaqf（16</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>第33条第1款</t>
+          <t>第93条第1款|第93条第2款</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>情节严重</t>
+          <t>一般</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>罚款</t>
+          <t>警告</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>税务</t>
+          <t>交通运输</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
-          <t>机构</t>
+          <t>个人</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>对机构处以二千元以下罚款</t>
+          <t>予以口头警告，令其立即驶离</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2597,17 +4632,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)18</t>
+          <t>zhrmghgdljtaqf（16</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>第33条第1款</t>
+          <t>第93条第1款|第93条第2款</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>情节严重</t>
+          <t>机动车驾驶人不在现场或者虽在现场但拒绝立即驶离，妨碍其他车辆、行人通行</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2618,18 +4653,18 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>税务</t>
+          <t>交通运输</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>人员</t>
+          <t>个人</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>对人员处以一千元以下罚款</t>
+          <t>处二十元以上二百元以下罚款</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2641,83 +4676,83 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)19</t>
+          <t>zhrmghgdljtaqf（16</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>第33条第1款</t>
+          <t>第93条第1款|第93条第2款</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>情节较重或者逾期不改正</t>
+          <t>机动车驾驶人不在现场或者虽在现场但拒绝立即驶离，妨碍其他车辆、行人通行</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>罚款</t>
+          <t>其他强制措施</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>税务</t>
+          <t>交通运输</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>机构</t>
+          <t>个人</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>对机构处以一千元以下罚款</t>
+          <t>可以将该机动车拖移至不妨碍交通的地点或者公安机关交通管理部门指定的地点停放</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>行政处罚</t>
+          <t>强制措施</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)19</t>
+          <t>zhrmghgdljtaqf（17</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>第33条第1款</t>
+          <t>第96条第1款</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>情节较重或者逾期不改正</t>
+          <t>一般</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>罚款</t>
+          <t>没收非法财物</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>税务</t>
+          <t>公安</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>人员</t>
+          <t>个人</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>对人员处以五百元以下罚款</t>
+          <t>由公安机关交通管理部门予以收缴</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2729,83 +4764,83 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)19</t>
+          <t>zhrmghgdljtaqf（17</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>第33条第1款</t>
+          <t>第96条第1款</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>情节严重</t>
+          <t>一般</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>罚款</t>
+          <t>扣押财物</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>税务</t>
+          <t>公安</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
-          <t>机构</t>
+          <t>个人</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>对机构处以二千元以下罚款</t>
+          <t>扣留该机动车</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>行政处罚</t>
+          <t>强制措施</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)19</t>
+          <t>zhrmghgdljtaqf（17</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>第33条第1款</t>
+          <t>第96条第1款</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>情节严重</t>
+          <t>一般</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>罚款</t>
+          <t>行政拘留</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>税务</t>
+          <t>公安</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>人员</t>
+          <t>个人</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>对人员处以一千元以下罚款</t>
+          <t>处十五日以下拘留</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2817,17 +4852,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)20</t>
+          <t>zhrmghgdljtaqf（17</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>第33条第1款</t>
+          <t>第96条第1款</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>情节较重或者逾期不改正</t>
+          <t>一般</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2838,18 +4873,18 @@
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>税务</t>
+          <t>公安</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>机构</t>
+          <t>个人</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>对机构处以一千元以下罚款</t>
+          <t>并处二千元以上五千元以下罚款</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2861,61 +4896,61 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)20</t>
+          <t>zhrmghgdljtaqf（19</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>第33条第1款</t>
+          <t>第96条第3款</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>情节较重或者逾期不改正</t>
+          <t>一般</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>罚款</t>
+          <t>扣押财物</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>税务</t>
+          <t>公安</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
-          <t>人员</t>
+          <t>个人、企业</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>对人员处以五百元以下罚款</t>
+          <t>由公安机关交通管理部门予以收缴，扣留该机动车</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>行政处罚</t>
+          <t>强制措施</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)20</t>
+          <t>zhrmghgdljtaqf（19</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>第33条第1款</t>
+          <t>第96条第3款</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>情节严重</t>
+          <t>一般</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2926,18 +4961,18 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>税务</t>
+          <t>公安</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
-          <t>机构</t>
+          <t>个人、企业</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>对机构处以二千元以下罚款</t>
+          <t>处二千元以上五千元以下罚款</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2949,56 +4984,56 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)20</t>
+          <t>zhrmghgdljtaqf（20</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>第33条第1款</t>
+          <t>第97条第1款</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>情节严重</t>
+          <t>一般</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>罚款</t>
+          <t>其他强制措施</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>税务</t>
+          <t>公安</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>人员</t>
+          <t>个人、企业</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>对人员处以一千元以下罚款</t>
+          <t>由公安机关交通管理部门强制拆除，予以收缴</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>行政处罚</t>
+          <t>强制措施</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)21</t>
+          <t>zhrmghgdljtaqf（20</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>第33条第2款</t>
+          <t>第97条第1款</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -3014,18 +5049,18 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>税务</t>
+          <t>公安</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>个人</t>
+          <t>个人、企业</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>处以一千元以下罚款</t>
+          <t>并处二百元以上二千元以下罚款</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -3037,28 +5072,28 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)21</t>
+          <t>zhrmghgdljtaqf（18</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>第33条第2款</t>
+          <t>第96条第2款</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>情节较重</t>
+          <t>一般</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>罚款</t>
+          <t>没收非法财物</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>税务</t>
+          <t>公安</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -3069,7 +5104,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>处以二千元以下罚款</t>
+          <t>由公安机关交通管理部门予以收缴</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -3081,28 +5116,28 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)21</t>
+          <t>zhrmghgdljtaqf（18</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>第33条第2款</t>
+          <t>第96条第2款</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>情节严重</t>
+          <t>一般</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>罚款</t>
+          <t>扣押财物</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>税务</t>
+          <t>公安</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -3113,24 +5148,24 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>处以五千元以下罚款</t>
+          <t>扣留该机动车</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>行政处罚</t>
+          <t>强制措施</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)22</t>
+          <t>zhrmghgdljtaqf（18</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>第33条第2款</t>
+          <t>第96条第2款</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -3140,24 +5175,24 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>罚款</t>
+          <t>行政拘留</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>税务</t>
+          <t>公安</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
-          <t>企业相关人员</t>
+          <t>个人</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>处以一千元以下罚款</t>
+          <t>处十日以下拘留</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -3169,17 +5204,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)22</t>
+          <t>zhrmghgdljtaqf（18</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>第33条第2款</t>
+          <t>第96条第2款</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>情节较重</t>
+          <t>一般</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -3190,18 +5225,18 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>税务</t>
+          <t>公安</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>企业相关人员</t>
+          <t>个人</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>处以二千元以下罚款</t>
+          <t>并处一千元以上三千元以下罚款</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -3213,56 +5248,56 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)22</t>
+          <t>zhrmghgdljtaqf（21</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>第33条第2款</t>
+          <t>第98条第1款|第98条第2款</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>情节严重</t>
+          <t>一般</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>罚款</t>
+          <t>扣押财物</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>税务</t>
+          <t>公安</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>企业相关人员</t>
+          <t>个人、企业</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>处以五千元以下罚款</t>
+          <t>由公安机关交通管理部门扣留车辆至依照规定投保后</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>行政处罚</t>
+          <t>强制措施</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)23</t>
+          <t>zhrmghgdljtaqf（21</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>第33条第3款</t>
+          <t>第98条第1款|第98条第2款</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -3278,18 +5313,18 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>税务</t>
+          <t>公安</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>企业、企业相关人员</t>
+          <t>个人、企业</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>对涉税专业服务机构处以二千元以下、对涉税服务人员处以一千元以下罚款</t>
+          <t>并处依照规定投保最低责任限额应缴纳的保险费的二倍罚款</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -3301,61 +5336,61 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)23</t>
+          <t>zhrmghgdljtaqf（22</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>第33条第3款</t>
+          <t>第98条第1款|第98条第2款</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>情节较重</t>
+          <t>一般</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>罚款</t>
+          <t>扣押财物</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>税务</t>
+          <t>交通运输</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>企业、企业相关人员</t>
+          <t>个人、企业</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>对涉税专业服务机构处以五千元以下、对涉税服务人员处以二千元以下罚款</t>
+          <t>由公安机关交通管理部门扣留车辆至依照规定投保后</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>行政处罚</t>
+          <t>强制措施</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)23</t>
+          <t>zhrmghgdljtaqf（22</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>第33条第3款</t>
+          <t>第98条第1款|第98条第2款</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>情节严重</t>
+          <t>一般</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -3366,18 +5401,18 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>税务</t>
+          <t>交通运输</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
-          <t>企业、企业相关人员</t>
+          <t>个人、企业</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>对涉税专业服务机构处以一万元以下、对涉税服务人员处以五千元以下罚款</t>
+          <t>并处依照规定投保最低责任限额应缴纳的保险费的二倍罚款</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -3389,12 +5424,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)25</t>
+          <t>zhrmghgdljtaqf（23</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>第33条第3款</t>
+          <t>第99条第1款</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -3410,18 +5445,18 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>税务</t>
+          <t>公安</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>企业、企业相关人员</t>
+          <t>个人</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>对涉税专业服务机构处以二千元以下、对涉税服务人员处以一千元以下罚款</t>
+          <t>由公安机关交通管理部门处二百元以上二千元以下罚款</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -3433,17 +5468,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)25</t>
+          <t>zhrmghgdljtaqf（25</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>第33条第3款</t>
+          <t>第99条第1款</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>情节较重</t>
+          <t>一般</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -3454,18 +5489,18 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>税务</t>
+          <t>公安</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
-          <t>企业、企业相关人员</t>
+          <t>个人</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>对涉税专业服务机构处以五千元以下、对涉税服务人员处以二千元以下罚款</t>
+          <t>由公安机关交通管理部门处二百元以上二千元以下罚款</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -3477,17 +5512,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)25</t>
+          <t>zhrmghgdljtaqf（24</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>第33条第3款</t>
+          <t>第99条第1款</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>情节严重</t>
+          <t>一般</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -3498,18 +5533,18 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>税务</t>
+          <t>公安</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
-          <t>企业、企业相关人员</t>
+          <t>个人</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>对涉税专业服务机构处以一万元以下、对涉税服务人员处以五千元以下罚款</t>
+          <t>由公安机关交通管理部门处二百元以上二千元以下罚款</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -3521,12 +5556,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)24</t>
+          <t>zhrmghgdljtaqf（27</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>第33条第3款</t>
+          <t>第99条第1款</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3542,18 +5577,18 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>税务</t>
+          <t>公安</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
         <is>
-          <t>涉税专业服务机构</t>
+          <t>个人</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>对涉税专业服务机构处以二千元以下罚款</t>
+          <t>由公安机关交通管理部门处二百元以上二千元以下罚款</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -3565,12 +5600,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)24</t>
+          <t>zhrmghgdljtaqf（26</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>第33条第3款</t>
+          <t>第99条第1款</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3586,18 +5621,18 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>税务</t>
+          <t>公安</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>涉税服务人员</t>
+          <t>个人</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>对涉税服务人员处以一千元以下罚款</t>
+          <t>由公安机关交通管理部门处二百元以上二千元以下罚款</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3609,17 +5644,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)24</t>
+          <t>zhrmghgdljtaqf（28</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>第33条第3款</t>
+          <t>第99条第1款</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>情节较重</t>
+          <t>一般</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3630,18 +5665,18 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>税务</t>
+          <t>公安</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
         <is>
-          <t>涉税专业服务机构</t>
+          <t>个人</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>对涉税专业服务机构处以五千元以下罚款</t>
+          <t>由公安机关交通管理部门处二百元以上二千元以下罚款</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3653,17 +5688,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)24</t>
+          <t>zhrmghgdljtaqf（29</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>第33条第3款</t>
+          <t>第99条第1款</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>情节较重</t>
+          <t>一般</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3674,18 +5709,18 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>税务</t>
+          <t>公安</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
         <is>
-          <t>涉税服务人员</t>
+          <t>个人、单位</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>对涉税服务人员处以二千元以下罚款</t>
+          <t>由公安机关交通管理部门处二百元以上二千元以下罚款</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3697,17 +5732,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)24</t>
+          <t>zhrmghgdljtaqf（30</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>第33条第3款</t>
+          <t>第99条第1款</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>情节严重</t>
+          <t>一般</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3718,18 +5753,18 @@
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>税务</t>
+          <t>公安</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
-          <t>涉税专业服务机构</t>
+          <t>个人</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>对涉税专业服务机构处以一万元以下罚款</t>
+          <t>由公安机关交通管理部门处二百元以上二千元以下罚款</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3741,39 +5776,39 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)24</t>
+          <t>zhrmghgdljtaqf（31</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>第33条第3款</t>
+          <t>第100条第3款</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>情节严重</t>
+          <t>一般</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>罚款</t>
+          <t>没收违法所得</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>税务</t>
+          <t>市场监督管理</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr">
         <is>
-          <t>涉税服务人员</t>
+          <t>企业、个体经营户</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>对涉税服务人员处以五千元以下罚款</t>
+          <t>没收违法所得</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3785,12 +5820,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)26</t>
+          <t>zhrmghgdljtaqf（31</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>第33条第3款</t>
+          <t>第100条第3款</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3806,18 +5841,18 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>税务</t>
+          <t>市场监督管理</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
-          <t>企业、企业相关人员</t>
+          <t>企业、个体经营户</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>对涉税专业服务机构处以二千元以下、对涉税服务人员处以一千元以下罚款</t>
+          <t>处销售金额等额的罚款</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3829,39 +5864,39 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)26</t>
+          <t>zhrmghgdljtaqf（32</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>第33条第3款</t>
+          <t>第103条第3款</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>情节较重</t>
+          <t>一般</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>罚款</t>
+          <t>没收非法财物</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t>税务</t>
+          <t>市场监督管理</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
         <is>
-          <t>企业、企业相关人员</t>
+          <t>企业</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>对涉税专业服务机构处以五千元以下、对涉税服务人员处以二千元以下罚款</t>
+          <t>没收非法生产、销售的机动车成品及配件</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3873,17 +5908,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)26</t>
+          <t>zhrmghgdljtaqf（32</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>第33条第3款</t>
+          <t>第103条第3款</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>情节严重</t>
+          <t>一般</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3894,18 +5929,18 @@
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
         <is>
-          <t>税务</t>
+          <t>市场监督管理</t>
         </is>
       </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr">
         <is>
-          <t>企业、企业相关人员</t>
+          <t>企业</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>对涉税专业服务机构处以一万元以下、对涉税服务人员处以五千元以下罚款</t>
+          <t>可以并处非法产品价值三倍以上五倍以下罚款</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3917,12 +5952,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)29</t>
+          <t>zhrmghgdljtaqf（32</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>第33条第3款</t>
+          <t>第103条第3款</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3932,24 +5967,24 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>罚款</t>
+          <t>吊销许可证件</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
         <is>
-          <t>税务</t>
+          <t>市场监督管理</t>
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr">
         <is>
-          <t>企业、企业相关人员</t>
+          <t>企业</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>对涉税专业服务机构处以二千元以下、对涉税服务人员处以一千元以下罚款</t>
+          <t>有营业执照的，由工商行政管理部门吊销营业执照</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3961,1011 +5996,44 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)29</t>
+          <t>zhrmghgdljtaqf（32</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>第33条第3款</t>
+          <t>第103条第3款</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>情节较重</t>
+          <t>一般</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>罚款</t>
+          <t>查封场所、设施或者财物</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
-          <t>税务</t>
+          <t>市场监督管理</t>
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr">
         <is>
-          <t>企业、企业相关人员</t>
+          <t>企业</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>对涉税专业服务机构处以五千元以下、对涉税服务人员处以二千元以下罚款</t>
+          <t>没有营业执照的，予以查封</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>行政处罚</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>sszyfwglbf(sx)29</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>第33条第3款</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>情节严重</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>罚款</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>税务</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>企业、企业相关人员</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>对涉税专业服务机构处以一万元以下、对涉税服务人员处以五千元以下罚款</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>行政处罚</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>sszyfwglbf(sx)27</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>第33条第3款</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>一般</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>罚款</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>税务</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>企业</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>对涉税专业服务机构处以二千元以下罚款</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>行政处罚</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>sszyfwglbf(sx)27</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>第33条第3款</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>一般</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>罚款</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>税务</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>企业相关人员</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>对涉税服务人员处以一千元以下罚款</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>行政处罚</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>sszyfwglbf(sx)27</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>第33条第3款</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>情节较重</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>罚款</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>税务</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>企业</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>对涉税专业服务机构处以五千元以下罚款</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>行政处罚</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>sszyfwglbf(sx)27</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>第33条第3款</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>情节较重</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>罚款</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>税务</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>企业相关人员</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>对涉税服务人员处以二千元以下罚款</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>行政处罚</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>sszyfwglbf(sx)27</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>第33条第3款</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>情节严重</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>罚款</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>税务</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>企业</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>对涉税专业服务机构处以一万元以下罚款</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>行政处罚</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>sszyfwglbf(sx)27</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>第33条第3款</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>情节严重</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>罚款</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>税务</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>企业相关人员</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>对涉税服务人员处以五千元以下罚款</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>行政处罚</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>sszyfwglbf(sx)28</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>第33条第3款</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>一般</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>罚款</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>税务</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>涉税专业服务机构</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>对涉税专业服务机构处以二千元以下罚款</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>行政处罚</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>sszyfwglbf(sx)28</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>第33条第3款</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>一般</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>罚款</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>税务</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>涉税服务人员</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>对涉税服务人员处以一千元以下罚款</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>行政处罚</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>sszyfwglbf(sx)28</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>第33条第3款</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>情节较重</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>罚款</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>税务</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>涉税专业服务机构</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>对涉税专业服务机构处以五千元以下罚款</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>行政处罚</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>sszyfwglbf(sx)28</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>第33条第3款</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>情节较重</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>罚款</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>税务</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>涉税服务人员</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>对涉税服务人员处以二千元以下罚款</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>行政处罚</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>sszyfwglbf(sx)28</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>第33条第3款</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>情节严重</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>罚款</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>税务</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>涉税专业服务机构</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>对涉税专业服务机构处以一万元以下罚款</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>行政处罚</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>sszyfwglbf(sx)28</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>第33条第3款</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>情节严重</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>罚款</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>税务</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>涉税服务人员</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>对涉税服务人员处以五千元以下罚款</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>行政处罚</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>sszyfwglbf(sx)30</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>第33条第3款</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>一般</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>罚款</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>税务</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>企业、企业相关人员</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>对涉税专业服务机构处以二千元以下、对涉税服务人员处以一千元以下罚款</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>行政处罚</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>sszyfwglbf(sx)30</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>第33条第3款</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>情节较重</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>罚款</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>税务</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>企业、企业相关人员</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>对涉税专业服务机构处以五千元以下、对涉税服务人员处以二千元以下罚款</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>行政处罚</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>sszyfwglbf(sx)30</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>第33条第3款</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>情节严重</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>罚款</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>税务</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>企业、企业相关人员</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>对涉税专业服务机构处以一万元以下、对涉税服务人员处以五千元以下罚款</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>行政处罚</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>编号</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>条款</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>情形</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>处罚类型</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>递进处罚</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>行业</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>主体级别</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>处罚对象</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>处罚明细</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>行政行为</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>jqsjyysglbf2</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>第41条第1款</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>一般</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>责令改正</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>水利</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>市、县(市、区)</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>企业</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>由市、县(市、区)水行政主管部门责令限期改正</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>行政措施</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>jqsjyysglbf2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>第41条第1款</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>拒不改正</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>罚款</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>水利</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>市、县(市、区)</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>企业</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>处五千元以上二万元以下罚款</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>行政处罚</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>jqsjyysglbf1</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>第40条第1款</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>一般</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>责令改正</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>水利</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>地市级、县级以下</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>单位</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>由市、县(市、区)水行政主管部门责令限期改正</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>行政措施</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>jqsjyysglbf1</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>第40条第1款</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>逾期不改正</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>罚款</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>水利</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>地市级、县级以下</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>单位</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>处一万元以上三万元以下罚款</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>行政处罚</t>
+          <t>强制措施</t>
         </is>
       </c>
     </row>
